--- a/data/descargables/DirectivosCFK.xlsx
+++ b/data/descargables/DirectivosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP516"/>
+  <dimension ref="A1:AP522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94884,6 +94884,1094 @@
         <v>45</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>614</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>7248465</v>
+      </c>
+      <c r="F517" t="n">
+        <v>61</v>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="O517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
+      <c r="S517" t="n">
+        <v>0</v>
+      </c>
+      <c r="T517" t="n">
+        <v>30</v>
+      </c>
+      <c r="U517" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V517" t="inlineStr">
+        <is>
+          <t>Software especializado áreas técnicas en procesos de comercio, industrial y alimentos, multimedia e Internet, redes alambricas e inhalambricas, redes sociales.</t>
+        </is>
+      </c>
+      <c r="W517" t="inlineStr">
+        <is>
+          <t>La institución es de carácter de media técnica con articulación en cadena de formación con el SENA y el acompañamiento de diferentes universidades en programas de inmersión a la educación superior.</t>
+        </is>
+      </c>
+      <c r="X517" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI517" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ517" t="inlineStr"/>
+      <c r="AK517" t="inlineStr">
+        <is>
+          <t>Observación de aula, Investigación-Acción, Pedagogía por proyectos productivos</t>
+        </is>
+      </c>
+      <c r="AL517" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM517" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="AN517" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO517" t="n">
+        <v>3300</v>
+      </c>
+      <c r="AP517" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>615</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>4935811</v>
+      </c>
+      <c r="F518" t="n">
+        <v>61</v>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr"/>
+      <c r="P518" t="inlineStr"/>
+      <c r="Q518" t="inlineStr"/>
+      <c r="R518" t="inlineStr"/>
+      <c r="S518" t="inlineStr"/>
+      <c r="T518" t="inlineStr"/>
+      <c r="U518" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V518" t="inlineStr">
+        <is>
+          <t>Estrategias diferentes al uso del tablero</t>
+        </is>
+      </c>
+      <c r="W518" t="inlineStr"/>
+      <c r="X518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG518" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI518" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ518" t="inlineStr"/>
+      <c r="AK518" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL518" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM518" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="AN518" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO518" t="n">
+        <v>1206</v>
+      </c>
+      <c r="AP518" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>616</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>6015229</v>
+      </c>
+      <c r="F519" t="n">
+        <v>67</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>Separado/a - Divorciado/a</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>3</v>
+      </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
+      <c r="S519" t="n">
+        <v>0</v>
+      </c>
+      <c r="T519" t="n">
+        <v>5</v>
+      </c>
+      <c r="U519" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V519" t="inlineStr">
+        <is>
+          <t>El pensamiento computacional</t>
+        </is>
+      </c>
+      <c r="W519" t="inlineStr"/>
+      <c r="X519" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y519" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH519" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI519" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ519" t="inlineStr"/>
+      <c r="AK519" t="inlineStr">
+        <is>
+          <t>Observación de aula, Mentoría, Autoestudio, Investigación-Acción</t>
+        </is>
+      </c>
+      <c r="AL519" t="inlineStr">
+        <is>
+          <t>Casi siempre</t>
+        </is>
+      </c>
+      <c r="AM519" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="AN519" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO519" t="n">
+        <v>734</v>
+      </c>
+      <c r="AP519" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>617</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>56055072</v>
+      </c>
+      <c r="F520" t="n">
+        <v>50</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>Soltero/a</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>Coordinador/a de área</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="O520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R520" t="n">
+        <v>4</v>
+      </c>
+      <c r="S520" t="n">
+        <v>0</v>
+      </c>
+      <c r="T520" t="n">
+        <v>0</v>
+      </c>
+      <c r="U520" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V520" t="inlineStr">
+        <is>
+          <t>El uso responsable de las redes sociales</t>
+        </is>
+      </c>
+      <c r="W520" t="inlineStr"/>
+      <c r="X520" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH520" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI520" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ520" t="inlineStr"/>
+      <c r="AK520" t="inlineStr">
+        <is>
+          <t>Mentoría</t>
+        </is>
+      </c>
+      <c r="AL520" t="inlineStr">
+        <is>
+          <t>Casi siempre</t>
+        </is>
+      </c>
+      <c r="AM520" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="AN520" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO520" t="n">
+        <v>1385</v>
+      </c>
+      <c r="AP520" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>618</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>30719465</v>
+      </c>
+      <c r="F521" t="n">
+        <v>60</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>Viudo/a</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>Docente Orientadora</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O521" t="n">
+        <v>1</v>
+      </c>
+      <c r="P521" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R521" t="n">
+        <v>3</v>
+      </c>
+      <c r="S521" t="n">
+        <v>0</v>
+      </c>
+      <c r="T521" t="n">
+        <v>10</v>
+      </c>
+      <c r="U521" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V521" t="inlineStr">
+        <is>
+          <t>Habilidades, pensamiento lógico, abstracto y computacional</t>
+        </is>
+      </c>
+      <c r="W521" t="inlineStr"/>
+      <c r="X521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI521" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ521" t="inlineStr"/>
+      <c r="AK521" t="inlineStr">
+        <is>
+          <t>Mentoría</t>
+        </is>
+      </c>
+      <c r="AL521" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM521" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="AN521" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO521" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AP521" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>619</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>30735149</v>
+      </c>
+      <c r="F522" t="n">
+        <v>55</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>Soltero/a</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O522" t="n">
+        <v>1</v>
+      </c>
+      <c r="P522" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>3</v>
+      </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
+      <c r="S522" t="n">
+        <v>0</v>
+      </c>
+      <c r="T522" t="n">
+        <v>10</v>
+      </c>
+      <c r="U522" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V522" t="inlineStr">
+        <is>
+          <t>La Ética en la Tecnología e Informática</t>
+        </is>
+      </c>
+      <c r="W522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Profundizar sobre el pensamiento computacional en  la solución de conflictos a nivel social.</t>
+        </is>
+      </c>
+      <c r="X522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y522" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG522" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH522" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI522" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ522" t="inlineStr">
+        <is>
+          <t>Muchas expectativas para el desarrollo del pensamiento computacional.</t>
+        </is>
+      </c>
+      <c r="AK522" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL522" t="inlineStr">
+        <is>
+          <t>Casi nunca</t>
+        </is>
+      </c>
+      <c r="AM522" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="AN522" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO522" t="n">
+        <v>1122</v>
+      </c>
+      <c r="AP522" t="n">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/DirectivosCFK.xlsx
+++ b/data/descargables/DirectivosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP522"/>
+  <dimension ref="A1:AP529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95972,6 +95972,1264 @@
         <v>42</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>620</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>36157855</v>
+      </c>
+      <c r="F523" t="n">
+        <v>68</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R523" t="n">
+        <v>1</v>
+      </c>
+      <c r="S523" t="n">
+        <v>0</v>
+      </c>
+      <c r="T523" t="n">
+        <v>0</v>
+      </c>
+      <c r="U523" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V523" t="inlineStr">
+        <is>
+          <t>Que sea dinámica y genere más curiosidad en los estudiantes</t>
+        </is>
+      </c>
+      <c r="W523" t="inlineStr"/>
+      <c r="X523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y523" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI523" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ523" t="inlineStr"/>
+      <c r="AK523" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL523" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM523" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="AN523" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO523" t="n">
+        <v>1384</v>
+      </c>
+      <c r="AP523" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>621</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>12113420</v>
+      </c>
+      <c r="F524" t="n">
+        <v>54</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr"/>
+      <c r="P524" t="inlineStr"/>
+      <c r="Q524" t="inlineStr"/>
+      <c r="R524" t="inlineStr"/>
+      <c r="S524" t="inlineStr"/>
+      <c r="T524" t="inlineStr"/>
+      <c r="U524" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mas dinámicas que les enseñe a aprender </t>
+        </is>
+      </c>
+      <c r="W524" t="inlineStr"/>
+      <c r="X524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF524" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI524" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ524" t="inlineStr"/>
+      <c r="AK524" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL524" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM524" t="inlineStr">
+        <is>
+          <t>080</t>
+        </is>
+      </c>
+      <c r="AN524" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO524" t="n">
+        <v>520</v>
+      </c>
+      <c r="AP524" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>622</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>7697923</v>
+      </c>
+      <c r="F525" t="n">
+        <v>49</v>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R525" t="n">
+        <v>25</v>
+      </c>
+      <c r="S525" t="n">
+        <v>0</v>
+      </c>
+      <c r="T525" t="n">
+        <v>0</v>
+      </c>
+      <c r="U525" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V525" t="inlineStr">
+        <is>
+          <t>relación entre tecnología y el día a día</t>
+        </is>
+      </c>
+      <c r="W525" t="inlineStr"/>
+      <c r="X525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA525" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF525" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG525" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH525" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI525" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ525" t="inlineStr"/>
+      <c r="AK525" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL525" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM525" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="AN525" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO525" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AP525" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>623</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>22509317</v>
+      </c>
+      <c r="F526" t="n">
+        <v>59</v>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>Viudo/a</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O526" t="n">
+        <v>2</v>
+      </c>
+      <c r="P526" t="inlineStr"/>
+      <c r="Q526" t="inlineStr"/>
+      <c r="R526" t="inlineStr"/>
+      <c r="S526" t="inlineStr"/>
+      <c r="T526" t="n">
+        <v>2</v>
+      </c>
+      <c r="U526" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Programación, </t>
+        </is>
+      </c>
+      <c r="W526" t="inlineStr"/>
+      <c r="X526" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI526" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ526" t="inlineStr"/>
+      <c r="AK526" t="inlineStr">
+        <is>
+          <t>Observación de aula</t>
+        </is>
+      </c>
+      <c r="AL526" t="inlineStr">
+        <is>
+          <t>Casi siempre</t>
+        </is>
+      </c>
+      <c r="AM526" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="AN526" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO526" t="n">
+        <v>320</v>
+      </c>
+      <c r="AP526" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>624</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>16251623</v>
+      </c>
+      <c r="F527" t="n">
+        <v>68</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O527" t="n">
+        <v>2111</v>
+      </c>
+      <c r="P527" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>105</v>
+      </c>
+      <c r="R527" t="n">
+        <v>5</v>
+      </c>
+      <c r="S527" t="n">
+        <v>2</v>
+      </c>
+      <c r="T527" t="n">
+        <v>2</v>
+      </c>
+      <c r="U527" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V527" t="inlineStr">
+        <is>
+          <t>Tic</t>
+        </is>
+      </c>
+      <c r="W527" t="inlineStr">
+        <is>
+          <t>Avances tecnologicos</t>
+        </is>
+      </c>
+      <c r="X527" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH527" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI527" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ527" t="inlineStr">
+        <is>
+          <t>Avanzar en tecnologia</t>
+        </is>
+      </c>
+      <c r="AK527" t="inlineStr">
+        <is>
+          <t>Observación de aula, Autoestudio, Investigación-Acción</t>
+        </is>
+      </c>
+      <c r="AL527" t="inlineStr">
+        <is>
+          <t>Casi siempre</t>
+        </is>
+      </c>
+      <c r="AM527" t="inlineStr">
+        <is>
+          <t>047</t>
+        </is>
+      </c>
+      <c r="AN527" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO527" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AP527" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>625</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>52155932</v>
+      </c>
+      <c r="F528" t="n">
+        <v>48</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>Soltero/a</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="O528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R528" t="n">
+        <v>3</v>
+      </c>
+      <c r="S528" t="n">
+        <v>0</v>
+      </c>
+      <c r="T528" t="n">
+        <v>0</v>
+      </c>
+      <c r="U528" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parte del desarrollo del pensamiento computacional, no sólo el recurso TIC en si. Habilidades que le permitan enfrentarse a cualquier situación donde tengan que resolver problemas. </t>
+        </is>
+      </c>
+      <c r="W528" t="inlineStr"/>
+      <c r="X528" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA528" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI528" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ528" t="inlineStr"/>
+      <c r="AK528" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL528" t="inlineStr">
+        <is>
+          <t>Casi siempre</t>
+        </is>
+      </c>
+      <c r="AM528" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="AN528" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO528" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP528" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>626</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>52046294</v>
+      </c>
+      <c r="F529" t="n">
+        <v>50</v>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>Soltero/a</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>1</v>
+      </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
+      <c r="S529" t="n">
+        <v>0</v>
+      </c>
+      <c r="T529" t="n">
+        <v>0</v>
+      </c>
+      <c r="U529" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V529" t="inlineStr">
+        <is>
+          <t>Hay que fortalecer tecnología y medio ambiente, hay que enfatizar en el uso y apropiación de la tecnología, enamorar a los estudiantes en la parte de soluciones, trabajar en la generación de conocimiento desde temprana edad</t>
+        </is>
+      </c>
+      <c r="W529" t="inlineStr"/>
+      <c r="X529" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI529" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ529" t="inlineStr"/>
+      <c r="AK529" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL529" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM529" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AN529" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO529" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AP529" t="n">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/DirectivosCFK.xlsx
+++ b/data/descargables/DirectivosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP529"/>
+  <dimension ref="A1:AP535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97230,6 +97230,1118 @@
         <v>39</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>627</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>39668969</v>
+      </c>
+      <c r="F530" t="n">
+        <v>49</v>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O530" t="n">
+        <v>1</v>
+      </c>
+      <c r="P530" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R530" t="n">
+        <v>1</v>
+      </c>
+      <c r="S530" t="n">
+        <v>0</v>
+      </c>
+      <c r="T530" t="n">
+        <v>22</v>
+      </c>
+      <c r="U530" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V530" t="inlineStr">
+        <is>
+          <t>manejo redes. programación, diseño, uso de diversas herramientas en líneas.</t>
+        </is>
+      </c>
+      <c r="W530" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="X530" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF530" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG530" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH530" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI530" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ530" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AK530" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL530" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM530" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="AN530" t="inlineStr">
+        <is>
+          <t>Cédula de extranjería</t>
+        </is>
+      </c>
+      <c r="AO530" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AP530" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>628</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>38670079</v>
+      </c>
+      <c r="F531" t="n">
+        <v>48</v>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O531" t="n">
+        <v>2</v>
+      </c>
+      <c r="P531" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
+      <c r="S531" t="n">
+        <v>1</v>
+      </c>
+      <c r="T531" t="n">
+        <v>20</v>
+      </c>
+      <c r="U531" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V531" t="inlineStr">
+        <is>
+          <t>Manejo de herramientas de Office</t>
+        </is>
+      </c>
+      <c r="W531" t="inlineStr"/>
+      <c r="X531" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG531" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI531" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ531" t="inlineStr"/>
+      <c r="AK531" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="AL531" t="inlineStr">
+        <is>
+          <t>Nunca</t>
+        </is>
+      </c>
+      <c r="AM531" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="AN531" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO531" t="n">
+        <v>825</v>
+      </c>
+      <c r="AP531" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>629</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>9093940</v>
+      </c>
+      <c r="F532" t="n">
+        <v>67</v>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O532" t="n">
+        <v>50</v>
+      </c>
+      <c r="P532" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>65</v>
+      </c>
+      <c r="R532" t="n">
+        <v>20</v>
+      </c>
+      <c r="S532" t="n">
+        <v>20</v>
+      </c>
+      <c r="T532" t="n">
+        <v>25</v>
+      </c>
+      <c r="U532" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V532" t="inlineStr">
+        <is>
+          <t>Manejo de la tics</t>
+        </is>
+      </c>
+      <c r="W532" t="inlineStr"/>
+      <c r="X532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI532" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ532" t="inlineStr"/>
+      <c r="AK532" t="inlineStr">
+        <is>
+          <t>Observación de aula, Autoestudio, Investigación-Acción</t>
+        </is>
+      </c>
+      <c r="AL532" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM532" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="AN532" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO532" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AP532" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>630</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>9083130</v>
+      </c>
+      <c r="F533" t="n">
+        <v>69</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="O533" t="n">
+        <v>95</v>
+      </c>
+      <c r="P533" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>80</v>
+      </c>
+      <c r="R533" t="n">
+        <v>15</v>
+      </c>
+      <c r="S533" t="n">
+        <v>10</v>
+      </c>
+      <c r="T533" t="n">
+        <v>20</v>
+      </c>
+      <c r="U533" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V533" t="inlineStr">
+        <is>
+          <t>Robotica, pensamiento computacional, realidad virtual</t>
+        </is>
+      </c>
+      <c r="W533" t="inlineStr"/>
+      <c r="X533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA533" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF533" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG533" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI533" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ533" t="inlineStr"/>
+      <c r="AK533" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL533" t="inlineStr">
+        <is>
+          <t>Casi nunca</t>
+        </is>
+      </c>
+      <c r="AM533" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="AN533" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO533" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AP533" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>631</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>79825576</v>
+      </c>
+      <c r="F534" t="n">
+        <v>43</v>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="O534" t="n">
+        <v>35</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>6</v>
+      </c>
+      <c r="R534" t="n">
+        <v>100</v>
+      </c>
+      <c r="S534" t="n">
+        <v>3</v>
+      </c>
+      <c r="T534" t="n">
+        <v>400</v>
+      </c>
+      <c r="U534" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V534" t="inlineStr">
+        <is>
+          <t>Programacion</t>
+        </is>
+      </c>
+      <c r="W534" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="X534" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE534" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI534" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ534" t="inlineStr"/>
+      <c r="AK534" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="AL534" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM534" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="AN534" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO534" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AP534" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>632</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>8532932</v>
+      </c>
+      <c r="F535" t="n">
+        <v>54</v>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>Rector/a</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O535" t="n">
+        <v>9</v>
+      </c>
+      <c r="P535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R535" t="n">
+        <v>200</v>
+      </c>
+      <c r="S535" t="n">
+        <v>20</v>
+      </c>
+      <c r="T535" t="n">
+        <v>10</v>
+      </c>
+      <c r="U535" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Todos los conceptos necesarios que permitan que el estudiante se fortalezca en sus competencias digitales y tecnológicas y no solo en algunos conceptos básicos como se hace tradicionalmente </t>
+        </is>
+      </c>
+      <c r="W535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El pensamiento computacional es de vital importancia en este momento del desarrollo tecnológico y de la evolución de la sociedad </t>
+        </is>
+      </c>
+      <c r="X535" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA535" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF535" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG535" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH535" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI535" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El pensamiento computacional es vital para los procesos de innovación en educación </t>
+        </is>
+      </c>
+      <c r="AK535" t="inlineStr">
+        <is>
+          <t>Observación de aula</t>
+        </is>
+      </c>
+      <c r="AL535" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM535" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="AN535" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO535" t="n">
+        <v>2350</v>
+      </c>
+      <c r="AP535" t="n">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
